--- a/06-15-25 to 06-21-25 Madison Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Madison Schedule.xlsx
@@ -1756,10 +1756,15 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1829,13 +1834,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Gray Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1913,14 +1919,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van,
-Supv Rx</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2003,13 +2008,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2080,21 +2084,9 @@
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2240,7 +2232,11 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -2305,7 +2301,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2360,7 +2356,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #378, RACINE - CALEDONIA</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2407,7 +2403,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PICK #378, RACINE - CALEDONIA</t>
+          <t>5111 DOUGLAS AVENUE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2450,7 +2446,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5111 DOUGLAS AVENUE</t>
+          <t>https://goo.gl/maps/b5CYjdz3kAC2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2493,7 +2489,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/b5CYjdz3kAC2</t>
+          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2538,11 +2534,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2584,9 +2576,21 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -2629,17 +2633,17 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -2680,12 +2684,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2739,17 +2743,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2802,12 +2806,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2874,12 +2878,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2958,12 +2962,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3033,12 +3037,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3108,12 +3112,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3193,12 +3197,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3265,12 +3269,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3337,12 +3341,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3402,21 +3406,9 @@
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3505,7 +3497,11 @@
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3554,7 +3550,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3605,7 +3601,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3644,7 +3640,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
+          <t>1736 PERRYVILLE RD</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3683,7 +3679,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1736 PERRYVILLE RD</t>
+          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3726,7 +3722,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3767,11 +3763,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3806,9 +3798,21 @@
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3856,19 +3860,15 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
@@ -3912,12 +3912,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3971,12 +3971,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4035,12 +4035,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4094,16 +4094,8 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">

--- a/06-15-25 to 06-21-25 Madison Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Madison Schedule.xlsx
@@ -3528,7 +3528,11 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -3579,7 +3583,11 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3630,7 +3638,11 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>FRANK'S FRESHWAY MARKET, (SOUTH ELGIN, IL)</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3669,7 +3681,11 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1175 W SPRING ST</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3708,7 +3724,11 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ei246rcGaobUV942A</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3751,7 +3771,11 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>*IL Meet is ?? am at IL office</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3846,7 +3870,11 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -3898,7 +3926,11 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -3957,7 +3989,11 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -4021,7 +4057,11 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -4086,7 +4126,11 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -4137,7 +4181,11 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -4176,7 +4224,11 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Madison Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Madison Schedule.xlsx
@@ -3239,17 +3239,8 @@
           <t>7)</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -3640,7 +3631,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FRANK'S FRESHWAY MARKET, (SOUTH ELGIN, IL)</t>
+          <t>(THIS USED TO BE A BUTERA MARKET)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3683,7 +3674,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1175 W SPRING ST</t>
+          <t>FRANK'S FRESHWAY MARKET, (SOUTH ELGIN, IL)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3726,7 +3717,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ei246rcGaobUV942A</t>
+          <t>1175 W SPRING ST</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3773,7 +3764,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>*IL Meet is ?? am at IL office</t>
+          <t>https://maps.app.goo.gl/ei246rcGaobUV942A</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3810,7 +3801,11 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>*IL Meet is ?? am at IL office</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3870,11 +3865,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -3928,11 +3919,19 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>@ Store, Optima, Equip</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
@@ -3991,7 +3990,7 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4059,7 +4058,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4128,7 +4127,7 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4183,7 +4182,7 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4226,7 +4225,7 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4267,7 +4266,11 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Madison Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Madison Schedule.xlsx
@@ -1981,7 +1981,7 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Gray Van</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2205,15 +2205,10 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -2273,12 +2268,13 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2333,9 +2329,21 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -2427,16 +2435,8 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2473,7 +2473,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2520,7 +2520,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>KELLEY WALWORTH CELLARS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>690 KENOSHA ST</t>
+          <t>(THIS USED TO BE A BUTERA MARKET)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2618,7 +2618,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/MtDv1BQiwir2d1ZS7</t>
+          <t>FRANK'S FRESHWAY MARKET, (SOUTH ELGIN, IL)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2669,7 +2669,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL office</t>
+          <t>1175 W SPRING ST</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2730,7 +2730,11 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ei246rcGaobUV942A</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2784,21 +2788,13 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*IL Meet is 5:00 am at IL office</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2848,16 +2844,8 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -2929,18 +2917,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3</t>
+          <t>Driver, Optima, Equip</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -3009,12 +2996,12 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3084,15 +3071,20 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -3169,12 +3161,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3236,10 +3228,14 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -3304,7 +3300,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3365,21 +3361,9 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -3519,11 +3503,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -3574,11 +3554,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3629,11 +3605,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>(THIS USED TO BE A BUTERA MARKET)</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3672,11 +3644,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>FRANK'S FRESHWAY MARKET, (SOUTH ELGIN, IL)</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3715,11 +3683,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1175 W SPRING ST</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3762,11 +3726,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ei246rcGaobUV942A</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3801,11 +3761,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>*IL Meet is ?? am at IL office</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3917,21 +3873,9 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>@ Store, Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
@@ -3988,11 +3932,7 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -4056,11 +3996,7 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -4125,11 +4061,7 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -4180,11 +4112,7 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -4223,11 +4151,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -4266,11 +4190,7 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Madison Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Madison Schedule.xlsx
@@ -1919,13 +1919,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2008,12 +2007,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2084,9 +2084,21 @@
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2227,11 +2239,7 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -2297,7 +2305,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2364,7 +2372,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>PICK #378, RACINE - CALEDONIA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2411,7 +2419,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>5111 DOUGLAS AVENUE</t>
+          <t>PICK #378, RACINE - CALEDONIA</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2446,7 +2454,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/b5CYjdz3kAC2</t>
+          <t>5111 DOUGLAS AVENUE</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2489,7 +2497,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
+          <t>https://goo.gl/maps/b5CYjdz3kAC2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2534,7 +2542,11 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2576,21 +2588,9 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -2633,17 +2633,17 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -2684,12 +2684,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2747,17 +2747,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2802,12 +2802,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2866,12 +2866,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2949,12 +2949,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3024,12 +3024,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3104,12 +3104,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3189,12 +3189,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3256,12 +3256,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3328,12 +3328,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3381,9 +3381,21 @@
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3472,11 +3484,7 @@
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3525,7 +3533,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3576,7 +3584,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3615,7 +3623,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1736 PERRYVILLE RD</t>
+          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3654,7 +3662,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
+          <t>1736 PERRYVILLE RD</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3697,7 +3705,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3738,7 +3746,11 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3773,21 +3785,9 @@
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3835,15 +3835,19 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
@@ -3887,12 +3891,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3946,12 +3950,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4010,12 +4014,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4069,8 +4073,16 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">

--- a/06-15-25 to 06-21-25 Madison Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Madison Schedule.xlsx
@@ -2276,13 +2276,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2337,21 +2336,9 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -2444,7 +2431,11 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2481,7 +2472,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2528,7 +2519,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>(THIS USED TO BE A BUTERA MARKET)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2575,7 +2566,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(THIS USED TO BE A BUTERA MARKET)</t>
+          <t>FRANK'S FRESHWAY MARKET, (SOUTH ELGIN, IL)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2618,7 +2609,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FRANK'S FRESHWAY MARKET, (SOUTH ELGIN, IL)</t>
+          <t>1175 W SPRING ST</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2669,7 +2660,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1175 W SPRING ST</t>
+          <t>https://maps.app.goo.gl/ei246rcGaobUV942A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2732,7 +2723,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ei246rcGaobUV942A</t>
+          <t>*IL Meet is 5:00 am at IL office</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2789,11 +2780,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:00 am at IL office</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2844,9 +2831,21 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Driver, Optima, Equip</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -2917,19 +2916,15 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Driver, Optima, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -2996,15 +2991,20 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -3071,20 +3071,15 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -3109,7 +3104,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3161,12 +3156,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3194,7 +3189,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3228,12 +3223,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3261,7 +3256,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3298,16 +3293,8 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -3333,7 +3320,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3388,7 +3375,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3436,9 +3423,21 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
@@ -3531,11 +3530,7 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3584,7 +3579,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3623,7 +3618,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3662,7 +3657,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1736 PERRYVILLE RD</t>
+          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3705,7 +3700,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
+          <t>1736 PERRYVILLE RD</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3748,7 +3743,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3786,7 +3781,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
@@ -3833,21 +3832,9 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
@@ -3891,15 +3878,19 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -3950,12 +3941,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4014,12 +4005,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4075,12 +4066,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4144,8 +4135,16 @@
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
